--- a/Data/sm1129200@gmail.com-solar-data.xlsx
+++ b/Data/sm1129200@gmail.com-solar-data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,1719 +438,2120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Solar Gird Generation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Consumption and Dicipation</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Solar Saving and backup</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>45620.90422453704</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>1.5325584475753</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2.300728553074733</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>45621.90422453704</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.7241079957645525</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2.910111643066014</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>45622.90422453704</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>1.087464986677723</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2.803291505926872</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>45623.90422453704</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>1.06275911929334</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1.927110445180915</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>45624.90422453704</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2.777098450725459</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.435385473353079</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1.34171297737238</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>45625.90422453704</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>2.431807195525345</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.6450167376693754</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1.786790457855969</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>45626.90422453704</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>1.644147989257763</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1.006432694001106</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.6377152952566569</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>45627.90422453704</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.7282398190880081</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>2.767328990056201</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>45628.90422453704</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>2.715077726073169</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1.217558905773116</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.497518820300053</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>45629.90422453704</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>1.200141057597655</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1.867751148984467</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>45630.90422453704</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>2.880219625638633</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>2.522408332698615</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.3578112929400183</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>45631.90422453704</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>3.219869101995154</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1.915129667343055</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.304739434652099</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>45632.90422453704</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>1.319723204053782</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>2.94573636855834</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>45633.90422453704</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>1.794088642928847</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1.260454337319069</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.5336343056097781</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>45634.90422453704</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.62104106456704</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>2.036828140222474</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>45635.90422453704</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>2.255832586191007</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>1.706454845945092</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.549377740245915</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>45636.90422453704</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>2.16775930647074</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>3.099945089035054</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>45637.90422453704</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>1.321453619221661</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>2.623459458669601</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>45638.90422453704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>3.351674504745195</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1.305556874154663</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2.046117630590532</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>45639.90422453704</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>2.790681388899493</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>1.504791712163943</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>1.28588967673555</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>45640.90422453704</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>0.8211238668487107</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>2.93273938788022</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>45641.90422453704</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>2.541243109887078</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>1.718981339559464</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>0.8222617703276143</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>45642.90422453704</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>1.13820318550377</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.35821736976118</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>45643.90422453704</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>2.690577797628131</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>3.179117498453737</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>45644.90422453704</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>1.023981336884094</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>1.484834101916772</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>45645.90422453704</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>0.7801698179652964</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>3.163226368550649</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>45646.90422453704</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>2.095738388670403</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>1.617417710910682</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>0.4783206777597209</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>45647.90422453704</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>3.209191902533377</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>0.9983735596935419</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>2.210818342839834</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>45648.90422453704</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>3.425593882487527</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2.352156761414284</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.073437121073243</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>45649.90422453704</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>1.554943562861241</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>1.976800787522669</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>45650.90422453704</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>2.840298937269559</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>1.442002111550602</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.398296825718957</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>45651.90422453704</v>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>1.747242137274317</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1.145078376462929</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.6021637608113886</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>45652.90422453704</v>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>3.26045355958705</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>2.264257505790801</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0.9961960537962482</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>45653.90422453704</v>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>2.151146904725033</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>1.016235162958577</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>1.134911741766456</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>45654.90422453704</v>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>1.279801645771319</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>2.607790001631307</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>45655.90422453704</v>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>1.768421386553743</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>3.48904284799053</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>45656.90422453704</v>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>1.663964451215963</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>2.974429477247077</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>45657.90422453704</v>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>3.288394230647408</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>2.735521805776321</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.552872424871087</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>45658.90422453704</v>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>2.748847809420191</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>2.428720510301777</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.3201272991184134</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>45659.90422453704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>1.974249559901193</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>0.6499302954192336</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>1.32431926448196</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>45660.90422453704</v>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>1.789196675807671</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>2.444166035798772</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>45661.90422453704</v>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>0.9049943624495589</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>1.494585220124848</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>45662.90422453704</v>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>1.306082285784062</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>1.316209938394008</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>45663.90422453704</v>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>1.822845797463303</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>3.463156304523725</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>45664.90422453704</v>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>2.250975239910081</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>0.8169056375396778</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1.434069602370403</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>45665.90422453704</v>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>2.965374526598367</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>1.970412703515979</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>0.9949618230823876</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
         <v>45666.90422453704</v>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>2.146457990471586</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>1.203491746775133</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0.942966243696453</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>45667.90422453704</v>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>3.17350609625551</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>1.150010403971653</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>2.023495692283857</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
         <v>45668.90422453704</v>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>2.451528329922089</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>0.7521945942117352</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>1.699333735710354</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
         <v>45669.90422453704</v>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>1.931397755299204</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>1.108521720418407</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>0.8228760348807966</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>45670.90422453704</v>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>1.374495725754531</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>2.65905720106002</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
         <v>45671.90422453704</v>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>2.575204748862832</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>2.213595865736238</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.3616088831265944</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
         <v>45672.90422453704</v>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>2.453972114974733</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>0.6276500976273316</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>1.826322017347401</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
         <v>45673.90422453704</v>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>1.910681403232954</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>1.850870580769262</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.05981082246369107</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
         <v>45674.90422453704</v>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>3.417675134044582</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>0.9974480146197648</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>2.420227119424817</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
         <v>45675.90422453704</v>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>3.379829231443295</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>3.006063424472314</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.3737658069709813</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>45676.90422453704</v>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>3.04243019066545</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>1.052698254080325</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>1.989731936585125</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
         <v>45677.90422453704</v>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>2.53391282968474</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>2.33267566053313</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0.2012371691516099</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
         <v>45678.90422453704</v>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>2.862031637037255</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>2.096744615974234</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0.7652870210630209</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
         <v>45679.90422453704</v>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>0.745762417639743</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>0.841404689597361</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
         <v>45680.90422453704</v>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>2.766847527906164</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>1.718950180165097</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>1.047897347741067</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
         <v>45681.90422453704</v>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>2.365996783620942</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>0.6800420316100076</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>1.685954752010934</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>45682.90422453704</v>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>3.476922957759309</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>1.268424739954335</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>2.208498217804974</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
         <v>45683.90422453704</v>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>1.737771719031163</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>1.966615465971929</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
         <v>45684.90422453704</v>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>1.540483900216252</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>2.299015693237483</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
         <v>45685.90422453704</v>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>1.736453347733462</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>1.323638339525334</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>0.4128150082081288</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
         <v>45686.90422453704</v>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>3.214307378514134</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>2.95928437902455</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>0.2550229994895834</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
         <v>45687.90422453704</v>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>2.858546347854067</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>1.287889336316136</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>1.570657011537932</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
         <v>45688.90422453704</v>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>1.375430537785089</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>3.011590136547914</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
         <v>45689.90422453704</v>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>2.80019570321184</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>1.868688678708236</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>0.9315070245036043</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
         <v>45690.90422453704</v>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>2.576977705971223</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>3.102326409945813</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
         <v>45691.90422453704</v>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>3.483446822311558</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>2.275225044959844</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>1.208221777351715</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
         <v>45692.90422453704</v>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>1.400098443205449</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>0.7881710641493083</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>0.6119273790561404</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
         <v>45693.90422453704</v>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>1.884701974350609</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>0.8047297236138853</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>1.079972250736724</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
         <v>45694.90422453704</v>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>1.666094303335442</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>0.7632267040121116</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>0.9028675993233303</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
         <v>45695.90422453704</v>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>3.101261682866418</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>1.760958535660746</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>1.340303147205672</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
         <v>45696.90422453704</v>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>3.454464302703281</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>2.491483938261183</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>0.9629803644420982</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
         <v>45697.90422453704</v>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>3.344336660632263</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>3.284712168666445</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>0.0596244919658182</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
         <v>45698.90422453704</v>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>1.645995215015219</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>2.518313971539193</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
         <v>45699.90422453704</v>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>1.136680101635547</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>2.031368373515864</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
         <v>45700.90422453704</v>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>3.306408637842071</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>2.800531514288137</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>0.5058771235539345</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
         <v>45701.90422453704</v>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>3.468356033686343</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>3.265988751480651</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>0.2023672822056919</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
         <v>45702.90422453704</v>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>2.854792234862005</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>2.760698524319659</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>0.09409371054234583</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
         <v>45703.90422453704</v>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>2.859684569180839</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>2.685233880126186</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>0.1744506890546527</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
         <v>45704.90422453704</v>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>2.613726886254296</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>1.045977907700189</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>1.567748978554107</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
         <v>45705.90422453704</v>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>3.191408400577123</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>0.8880173614527588</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>2.303391039124364</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
         <v>45706.90422453704</v>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>1.559767377103472</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>3.095799017884646</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
         <v>45707.90422453704</v>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>2.221198807825439</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>2.376302665022414</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
         <v>45708.90422453704</v>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>0.731560027577715</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>1.905315215507103</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
         <v>45709.90422453704</v>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>2.245302505214326</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>2.239838475953268</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>0.005464029261057934</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
         <v>45710.90422453704</v>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>3.301912234171137</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>2.131801986510449</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>1.170110247660688</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
         <v>45711.90422453704</v>
       </c>
-      <c r="B93" t="n">
+      <c r="C93" t="n">
         <v>1.808932768446315</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>3.38545140636988</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
         <v>45712.90422453704</v>
       </c>
-      <c r="B94" t="n">
+      <c r="C94" t="n">
         <v>0.9954633197224543</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>0.830627055796937</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>0.1648362639255173</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
         <v>45713.90422453704</v>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>3.139838294225487</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>1.451895147608006</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>1.687943146617481</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
         <v>45714.90422453704</v>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>1.884134343532183</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>3.444005568771265</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
         <v>45715.90422453704</v>
       </c>
-      <c r="B97" t="n">
+      <c r="C97" t="n">
         <v>1.075761568269274</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>0.8255748788734374</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>0.2501866893958364</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
         <v>45716.90422453704</v>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>1.309611145082909</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>2.851715111798386</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
         <v>45717.90422453704</v>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>3.477243024239101</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>2.203884903019663</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>1.273358121219438</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
         <v>45718.90422453704</v>
       </c>
-      <c r="B100" t="n">
+      <c r="C100" t="n">
         <v>2.895848579538939</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>3.316936890307892</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
         <v>45719.90422453704</v>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>2.418530349133276</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>1.088204439200997</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>1.33032590993228</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
         <v>45720.90422453704</v>
       </c>
-      <c r="B102" t="n">
+      <c r="C102" t="n">
         <v>1.808056339174947</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>1.481600181870392</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>0.3264561573045552</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
         <v>45721.90422453704</v>
       </c>
-      <c r="B103" t="n">
+      <c r="C103" t="n">
         <v>0.732264334401724</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>2.111718909282138</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
         <v>45722.90422453704</v>
       </c>
-      <c r="B104" t="n">
+      <c r="C104" t="n">
         <v>2.700965381507094</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>3.29278413771861</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
         <v>45723.90422453704</v>
       </c>
-      <c r="B105" t="n">
+      <c r="C105" t="n">
         <v>0.8869087814940139</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>3.196705509771006</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
         <v>45724.90422453704</v>
       </c>
-      <c r="B106" t="n">
+      <c r="C106" t="n">
         <v>1.552325881653969</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>1.534323863511942</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>0.01800201814202729</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
         <v>45725.90422453704</v>
       </c>
-      <c r="B107" t="n">
+      <c r="C107" t="n">
         <v>3.397869523698539</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>0.9432391330583481</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>2.454630390640191</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
         <v>45726.90422453704</v>
       </c>
-      <c r="B108" t="n">
+      <c r="C108" t="n">
         <v>0.6007757951425018</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>2.330286803584294</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
         <v>45727.90422453704</v>
       </c>
-      <c r="B109" t="n">
+      <c r="C109" t="n">
         <v>3.080794108761642</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>2.826952208188889</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>0.2538419005727528</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
         <v>45728.90422453704</v>
       </c>
-      <c r="B110" t="n">
+      <c r="C110" t="n">
         <v>2.827116154182131</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>1.270537835536662</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>1.556578318645469</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
         <v>45729.90422453704</v>
       </c>
-      <c r="B111" t="n">
+      <c r="C111" t="n">
         <v>0.6953516195669648</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>1.26094293286538</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
         <v>45730.90422453704</v>
       </c>
-      <c r="B112" t="n">
+      <c r="C112" t="n">
         <v>2.372405507569974</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>3.495703611475113</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
         <v>45731.90422453704</v>
       </c>
-      <c r="B113" t="n">
+      <c r="C113" t="n">
         <v>2.261690372111917</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>2.638059540292236</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
         <v>45732.90422453704</v>
       </c>
-      <c r="B114" t="n">
+      <c r="C114" t="n">
         <v>2.509823445750169</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>3.428785872433024</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
         <v>45733.90422453704</v>
       </c>
-      <c r="B115" t="n">
+      <c r="C115" t="n">
         <v>1.807475588131952</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>2.10851870326018</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
         <v>45734.90422453704</v>
       </c>
-      <c r="B116" t="n">
+      <c r="C116" t="n">
         <v>3.119879904683891</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>0.9778746412283799</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>2.142005263455511</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
         <v>45735.90422453704</v>
       </c>
-      <c r="B117" t="n">
+      <c r="C117" t="n">
         <v>2.32151353155539</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>2.497249331882702</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
         <v>45736.90422453704</v>
       </c>
-      <c r="B118" t="n">
+      <c r="C118" t="n">
         <v>1.657894164932542</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>2.198882261988618</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
         <v>45737.90422453704</v>
       </c>
-      <c r="B119" t="n">
+      <c r="C119" t="n">
         <v>1.147713467658823</v>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>2.839019717841173</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
         <v>45738.90422453704</v>
       </c>
-      <c r="B120" t="n">
+      <c r="C120" t="n">
         <v>2.482192136722798</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>0.7545402734962219</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>1.727651863226576</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
         <v>45739.90422453704</v>
       </c>
-      <c r="B121" t="n">
+      <c r="C121" t="n">
         <v>1.397146776160267</v>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>2.410069421946669</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
         <v>45740.90422453704</v>
       </c>
-      <c r="B122" t="n">
+      <c r="C122" t="n">
         <v>1.889147745329844</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>0.6224543734374439</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>1.2666933718924</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2025-03-24 21:42:05</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.494162893842624</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.005655205847902</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4885076879947217</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2025-03-25 21:42:05</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9289752392365709</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.864393512853586</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
